--- a/tasks/EmployeeWorkLog/WeekendSummary.xlsx
+++ b/tasks/EmployeeWorkLog/WeekendSummary.xlsx
@@ -6,7 +6,7 @@
     <workbookView activeTab="0"/>
   </bookViews>
   <sheets>
-    <sheet name="Weekend Summary" r:id="rId3" sheetId="1"/>
+    <sheet name="Sheet1" r:id="rId3" sheetId="1"/>
   </sheets>
 </workbook>
 </file>
@@ -17,7 +17,7 @@
     <t>Week day</t>
   </si>
   <si>
-    <t>Total Hours</t>
+    <t>Total hours worked</t>
   </si>
   <si>
     <t>Saturday</t>
